--- a/_Drive/Publicacoes/ismenia.xlsx
+++ b/_Drive/Publicacoes/ismenia.xlsx
@@ -8,38 +8,206 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miGWP8PgSiZm1M4F1WXw7El4FqdIg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="YzKSLZU0XYhgyzMylXGz1ov6H0D8FjBCbRHiDahfQP8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>10.1016/j.corsci.2021.109892</t>
-  </si>
-  <si>
-    <t>10.1016/j.mtcomm.2020.101282Get</t>
-  </si>
-  <si>
-    <t>10.1080/02670844.2020.1820266</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2018-0218</t>
-  </si>
-  <si>
-    <t>10.5539/jmsr.v9n1p32</t>
-  </si>
-  <si>
-    <t>10.1007/s40430-018-1375-2</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2017-0468</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/app.56389</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/maco.201206578</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/maco.201508402</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10904-024-03275-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-024-10456-z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-008-9390-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-015-0374-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s40430-018-1375-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.clay.2024.107472</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.corsci.2021.109892</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2010.08.019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmapro.2023.10.003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2006.05.014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2006.10.015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2006.10.015.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.mtcomm.2020.101282Get</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1080/02670844.2020.1820266</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2017-0468</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2018-0218</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.2355/isijinternational.46.1674</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.5539/jmsr.v9n1p32</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -60,9 +228,8 @@
       <name val="Sans"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -350,20 +517,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="23" ht="12.75" customHeight="1"/>
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1"/>
@@ -1343,6 +1566,29 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+    <hyperlink r:id="rId16" ref="A17"/>
+    <hyperlink r:id="rId17" ref="A18"/>
+    <hyperlink r:id="rId18" ref="A19"/>
+    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink r:id="rId20" ref="A21"/>
+    <hyperlink r:id="rId21" ref="A22"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.6666666666666667" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.6666666666666667"/>
   <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait"/>
@@ -1350,6 +1596,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>